--- a/data/trans_orig/P68-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P68-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>65083</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>51861</v>
+        <v>51066</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81572</v>
+        <v>80215</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1831327350917871</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1459289934238615</v>
+        <v>0.1436916882726517</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2295303739144023</v>
+        <v>0.2257120340672544</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -765,19 +765,19 @@
         <v>46650</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35878</v>
+        <v>35690</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>61526</v>
+        <v>60527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2148338050147507</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1652261986097995</v>
+        <v>0.1643586927425628</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2833437662726244</v>
+        <v>0.2787395708033936</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>109</v>
@@ -786,19 +786,19 @@
         <v>111733</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>94018</v>
+        <v>94264</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>132322</v>
+        <v>131958</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.195156013133725</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1642151069015446</v>
+        <v>0.1646435706196491</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2311182170364177</v>
+        <v>0.2304810471738228</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>290304</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>273815</v>
+        <v>275172</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>303526</v>
+        <v>304321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8168672649082129</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7704696260855977</v>
+        <v>0.7742879659327456</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8540710065761387</v>
+        <v>0.8563083117273483</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -836,19 +836,19 @@
         <v>170494</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>155618</v>
+        <v>156617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>181266</v>
+        <v>181454</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7851661949852493</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7166562337273752</v>
+        <v>0.7212604291966065</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8347738013902003</v>
+        <v>0.8356413072574376</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>445</v>
@@ -857,19 +857,19 @@
         <v>460798</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>440209</v>
+        <v>440573</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>478513</v>
+        <v>478267</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.804843986866275</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7688817829635823</v>
+        <v>0.7695189528261772</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8357848930984555</v>
+        <v>0.8353564293803509</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>42354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30016</v>
+        <v>31047</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>57649</v>
+        <v>56575</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1569503934131569</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1112300568382437</v>
+        <v>0.1150485069605262</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.213625521508382</v>
+        <v>0.2096457920004233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -982,19 +982,19 @@
         <v>41616</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31413</v>
+        <v>30324</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54504</v>
+        <v>54052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1786925590047246</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1348833786568256</v>
+        <v>0.1302056149475607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2340348492075545</v>
+        <v>0.2320938641817014</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1003,19 +1003,19 @@
         <v>83970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67510</v>
+        <v>69259</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102442</v>
+        <v>102642</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1670220686520084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1342810474541098</v>
+        <v>0.1377601822453177</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2037628974686371</v>
+        <v>0.204160527335654</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>227505</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212210</v>
+        <v>213284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239843</v>
+        <v>238812</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.843049606586843</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7863744784916189</v>
+        <v>0.7903542079995767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8887699431617565</v>
+        <v>0.8849514930394738</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>189</v>
@@ -1053,19 +1053,19 @@
         <v>191274</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>178386</v>
+        <v>178838</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>201477</v>
+        <v>202566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8213074409952754</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7659651507924454</v>
+        <v>0.7679061358182987</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8651166213431744</v>
+        <v>0.8697943850524393</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>405</v>
@@ -1074,19 +1074,19 @@
         <v>418779</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>400307</v>
+        <v>400107</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>435239</v>
+        <v>433490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8329779313479916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7962371025313619</v>
+        <v>0.795839472664346</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8657189525458899</v>
+        <v>0.8622398177546823</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>100030</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>83639</v>
+        <v>82893</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>118630</v>
+        <v>119772</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2647161952816357</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2213405807861921</v>
+        <v>0.2193651216323881</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3139408492998534</v>
+        <v>0.3169612481783348</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -1199,19 +1199,19 @@
         <v>16287</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10168</v>
+        <v>10147</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24114</v>
+        <v>24312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2911758376516981</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1817743170227539</v>
+        <v>0.1814092151970794</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4311000263476225</v>
+        <v>0.4346526435589357</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -1220,19 +1220,19 @@
         <v>116317</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>98280</v>
+        <v>99007</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135734</v>
+        <v>138314</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2681278725550418</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2265497030744099</v>
+        <v>0.2282275029456859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3128875455592209</v>
+        <v>0.3188351661276982</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>277845</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>259245</v>
+        <v>258103</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>294236</v>
+        <v>294982</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7352838047183643</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6860591507001466</v>
+        <v>0.6830387518216653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7786594192138079</v>
+        <v>0.7806348783676119</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>39</v>
@@ -1270,19 +1270,19 @@
         <v>39648</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31821</v>
+        <v>31623</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>45767</v>
+        <v>45788</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7088241623483019</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5688999736523775</v>
+        <v>0.5653473564410643</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8182256829772462</v>
+        <v>0.8185907848029206</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -1291,19 +1291,19 @@
         <v>317493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>298076</v>
+        <v>295496</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>335530</v>
+        <v>334803</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7318721274449582</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6871124544407793</v>
+        <v>0.6811648338723018</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.77345029692559</v>
+        <v>0.7717724970543141</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>200007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>174478</v>
+        <v>178382</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>225072</v>
+        <v>222457</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2861918117146769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2496610796337616</v>
+        <v>0.2552474385003547</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3220573503418615</v>
+        <v>0.318315354856275</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1416,19 +1416,19 @@
         <v>49946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38208</v>
+        <v>38301</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>63182</v>
+        <v>63776</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1647178622684179</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1260057384556851</v>
+        <v>0.1263130722246394</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.208367949823425</v>
+        <v>0.2103255881930907</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>243</v>
@@ -1437,19 +1437,19 @@
         <v>249954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>226254</v>
+        <v>223167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>278036</v>
+        <v>280391</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2494345117233112</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2257843101952049</v>
+        <v>0.2227033611325236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.277458674395144</v>
+        <v>0.279808538878341</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>498851</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>473786</v>
+        <v>476401</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>524380</v>
+        <v>520476</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.713808188285323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6779426496581386</v>
+        <v>0.681684645143725</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7503389203662384</v>
+        <v>0.7447525614996453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>237</v>
@@ -1487,19 +1487,19 @@
         <v>253278</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>240042</v>
+        <v>239448</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265016</v>
+        <v>264923</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8352821377315821</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.791632050176575</v>
+        <v>0.7896744118069093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8739942615443149</v>
+        <v>0.8736869277753609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>716</v>
@@ -1508,19 +1508,19 @@
         <v>752127</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>724045</v>
+        <v>721690</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>775827</v>
+        <v>778914</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7505654882766888</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.722541325604856</v>
+        <v>0.7201914611216589</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7742156898047949</v>
+        <v>0.7772966388674764</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>64009</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51459</v>
+        <v>50430</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>77490</v>
+        <v>77293</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3499000985454028</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2812977402935759</v>
+        <v>0.2756728847553436</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4235900025590423</v>
+        <v>0.4225150963898487</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -1633,19 +1633,19 @@
         <v>65623</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52715</v>
+        <v>51513</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>79969</v>
+        <v>79928</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3145097115862819</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2526480245338252</v>
+        <v>0.2468859744759518</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3832665354183937</v>
+        <v>0.3830690461943196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1654,19 +1654,19 @@
         <v>129632</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110991</v>
+        <v>112592</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>148192</v>
+        <v>150365</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.331042922342505</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2834389921051355</v>
+        <v>0.2875284606819969</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3784382690417807</v>
+        <v>0.3839876564967022</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>118927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>105446</v>
+        <v>105643</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>131477</v>
+        <v>132506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6500999014545972</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5764099974409579</v>
+        <v>0.5774849036101514</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7187022597064241</v>
+        <v>0.7243271152446563</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>130</v>
@@ -1704,19 +1704,19 @@
         <v>143028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128682</v>
+        <v>128723</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>155936</v>
+        <v>157138</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6854902884137181</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6167334645816061</v>
+        <v>0.6169309538056806</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7473519754661748</v>
+        <v>0.7531140255240485</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>240</v>
@@ -1725,19 +1725,19 @@
         <v>261955</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243395</v>
+        <v>241222</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>280596</v>
+        <v>278995</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.668957077657495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6215617309582193</v>
+        <v>0.616012343503298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7165610078948644</v>
+        <v>0.7124715393180031</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>471484</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>433141</v>
+        <v>431702</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>512072</v>
+        <v>507493</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2501353389312339</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2297934067652063</v>
+        <v>0.2290298407412494</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2716682435184681</v>
+        <v>0.2692394210912512</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>215</v>
@@ -1850,19 +1850,19 @@
         <v>220121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>195005</v>
+        <v>194705</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>248755</v>
+        <v>247858</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2162626557167993</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1915862714102577</v>
+        <v>0.1912913492706456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2443945793325639</v>
+        <v>0.2435125915397502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>664</v>
@@ -1871,19 +1871,19 @@
         <v>691605</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>651863</v>
+        <v>647735</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>741288</v>
+        <v>737947</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2382579875596775</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2245668615005333</v>
+        <v>0.2231448312182819</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2553737906548305</v>
+        <v>0.2542228563777044</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>1413431</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1372843</v>
+        <v>1377422</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1451774</v>
+        <v>1453213</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7498646610687661</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.728331756481532</v>
+        <v>0.7307605789087489</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7702065932347938</v>
+        <v>0.7709701592587506</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>759</v>
@@ -1921,19 +1921,19 @@
         <v>797722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>769088</v>
+        <v>769985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>822838</v>
+        <v>823138</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7837373442832007</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7556054206674362</v>
+        <v>0.7564874084602501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8084137285897424</v>
+        <v>0.8087086507293546</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2115</v>
@@ -1942,19 +1942,19 @@
         <v>2211153</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2161470</v>
+        <v>2164811</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2250895</v>
+        <v>2255023</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7617420124403225</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7446262093451697</v>
+        <v>0.7457771436222955</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7754331384994666</v>
+        <v>0.7768551687817181</v>
       </c>
     </row>
     <row r="21">
@@ -2287,19 +2287,19 @@
         <v>55458</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>43067</v>
+        <v>42396</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>71193</v>
+        <v>69650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1831495973642204</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1422264275763496</v>
+        <v>0.1400104979137595</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2351117699613075</v>
+        <v>0.2300190973052403</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>42</v>
@@ -2308,19 +2308,19 @@
         <v>43869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33784</v>
+        <v>33181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57491</v>
+        <v>56656</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2256494046707123</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1737747646602727</v>
+        <v>0.1706716257012629</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2957125671260984</v>
+        <v>0.2914201135020627</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -2329,19 +2329,19 @@
         <v>99328</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>81697</v>
+        <v>81324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>118690</v>
+        <v>119565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1997672137728968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1643091647959727</v>
+        <v>0.1635586066170618</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2387088224641132</v>
+        <v>0.2404681468181199</v>
       </c>
     </row>
     <row r="5">
@@ -2358,19 +2358,19 @@
         <v>247345</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>231610</v>
+        <v>233153</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259736</v>
+        <v>260407</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8168504026357796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7648882300386924</v>
+        <v>0.7699809026947597</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.85777357242365</v>
+        <v>0.8599895020862405</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>134</v>
@@ -2379,19 +2379,19 @@
         <v>150545</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>136923</v>
+        <v>137758</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>160630</v>
+        <v>161233</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7743505953292876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7042874328739015</v>
+        <v>0.7085798864979372</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8262252353397271</v>
+        <v>0.829328374298737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -2400,19 +2400,19 @@
         <v>397889</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>378527</v>
+        <v>377652</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>415520</v>
+        <v>415893</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8002327862271031</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7612911775358869</v>
+        <v>0.7595318531818805</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8356908352040275</v>
+        <v>0.8364413933829387</v>
       </c>
     </row>
     <row r="6">
@@ -2504,19 +2504,19 @@
         <v>37301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>26679</v>
+        <v>26750</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49868</v>
+        <v>51248</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1448391688006995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1035963144666011</v>
+        <v>0.10386976620017</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.193638302761015</v>
+        <v>0.1989966996946222</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>23</v>
@@ -2525,19 +2525,19 @@
         <v>26614</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17242</v>
+        <v>18214</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>38207</v>
+        <v>38225</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1593336455194567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1032245595526203</v>
+        <v>0.1090430459578128</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2287336281996145</v>
+        <v>0.2288449156816368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>58</v>
@@ -2546,19 +2546,19 @@
         <v>63915</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49333</v>
+        <v>48931</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>81617</v>
+        <v>80277</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1505416619455257</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1161956122981652</v>
+        <v>0.1152497745575126</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1922365797350548</v>
+        <v>0.1890789716099728</v>
       </c>
     </row>
     <row r="8">
@@ -2575,19 +2575,19 @@
         <v>220231</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>207664</v>
+        <v>206284</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>230853</v>
+        <v>230782</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8551608311993005</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8063616972389847</v>
+        <v>0.8010033003053785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8964036855333987</v>
+        <v>0.89613023379983</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>129</v>
@@ -2596,19 +2596,19 @@
         <v>140421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>128828</v>
+        <v>128810</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>149793</v>
+        <v>148821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8406663544805433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7712663718003856</v>
+        <v>0.7711550843183632</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8967754404473798</v>
+        <v>0.8909569540421872</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>325</v>
@@ -2617,19 +2617,19 @@
         <v>360652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>342950</v>
+        <v>344290</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>375234</v>
+        <v>375636</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8494583380544743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8077634202649453</v>
+        <v>0.8109210283900272</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8838043877018349</v>
+        <v>0.8847502254424874</v>
       </c>
     </row>
     <row r="9">
@@ -2721,19 +2721,19 @@
         <v>80435</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65249</v>
+        <v>66675</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>96389</v>
+        <v>96432</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2866628644293147</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2325429758720364</v>
+        <v>0.2376231929088993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3435227228176366</v>
+        <v>0.343677366477993</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -2742,19 +2742,19 @@
         <v>33721</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22998</v>
+        <v>25261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43264</v>
+        <v>44518</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3072650198302922</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.209557863478945</v>
+        <v>0.2301772256836552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3942173723498096</v>
+        <v>0.4056417523025144</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>109</v>
@@ -2763,19 +2763,19 @@
         <v>114156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>96353</v>
+        <v>96325</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132501</v>
+        <v>132276</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2924553734489193</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2468456259790803</v>
+        <v>0.2467745192567233</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3394534829261539</v>
+        <v>0.3388762391972407</v>
       </c>
     </row>
     <row r="11">
@@ -2792,19 +2792,19 @@
         <v>200155</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>184201</v>
+        <v>184158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215341</v>
+        <v>213915</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7133371355706852</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6564772771823635</v>
+        <v>0.6563226335220074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7674570241279636</v>
+        <v>0.7623768070911011</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>73</v>
@@ -2813,19 +2813,19 @@
         <v>76026</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>66483</v>
+        <v>65229</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>86749</v>
+        <v>84486</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6927349801697078</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6057826276501904</v>
+        <v>0.5943582476974857</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7904421365210552</v>
+        <v>0.7698227743163448</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>269</v>
@@ -2834,19 +2834,19 @@
         <v>276181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>257836</v>
+        <v>258061</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>293984</v>
+        <v>294012</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7075446265510807</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6605465170738462</v>
+        <v>0.6611237608027593</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7531543740209198</v>
+        <v>0.7532254807432768</v>
       </c>
     </row>
     <row r="12">
@@ -2938,19 +2938,19 @@
         <v>118254</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>100630</v>
+        <v>101929</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>139415</v>
+        <v>137567</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2803043637785845</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2385304020206068</v>
+        <v>0.2416099433625897</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3304633582378892</v>
+        <v>0.326084525617872</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2959,19 +2959,19 @@
         <v>67955</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55632</v>
+        <v>53879</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85053</v>
+        <v>83866</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2258331773298542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1848829278141127</v>
+        <v>0.1790542861048148</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2826551763834602</v>
+        <v>0.2787106756951837</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>179</v>
@@ -2980,19 +2980,19 @@
         <v>186208</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>161858</v>
+        <v>163143</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>210778</v>
+        <v>211442</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2576271022351734</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2239365532131274</v>
+        <v>0.2257156720479342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2916197323559909</v>
+        <v>0.2925381995356078</v>
       </c>
     </row>
     <row r="14">
@@ -3009,19 +3009,19 @@
         <v>303622</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>282461</v>
+        <v>284309</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321246</v>
+        <v>319947</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7196956362214155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6695366417621107</v>
+        <v>0.6739154743821281</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7614695979793932</v>
+        <v>0.7583900566374103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>220</v>
@@ -3030,19 +3030,19 @@
         <v>232951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>215853</v>
+        <v>217040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>245274</v>
+        <v>247027</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7741668226701458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7173448236165398</v>
+        <v>0.7212893243048163</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8151170721858874</v>
+        <v>0.8209457138951852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>501</v>
@@ -3051,19 +3051,19 @@
         <v>536575</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>512005</v>
+        <v>511341</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>560925</v>
+        <v>559640</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7423728977648265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7083802676440085</v>
+        <v>0.7074618004643921</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7760634467868719</v>
+        <v>0.7742843279520658</v>
       </c>
     </row>
     <row r="15">
@@ -3155,19 +3155,19 @@
         <v>40004</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29211</v>
+        <v>29221</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52086</v>
+        <v>52584</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2616574694846266</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1910632514687333</v>
+        <v>0.1911265358413738</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3406801359323947</v>
+        <v>0.3439392900041979</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -3176,19 +3176,19 @@
         <v>43668</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>32479</v>
+        <v>32103</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>56438</v>
+        <v>56410</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2512902766536645</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1869023532071432</v>
+        <v>0.1847404442095313</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3247736091483263</v>
+        <v>0.3246124801499172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>75</v>
@@ -3197,19 +3197,19 @@
         <v>83672</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>67491</v>
+        <v>68187</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>100800</v>
+        <v>100688</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2561424361872051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2066068198385486</v>
+        <v>0.2087387575775221</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3085753198084421</v>
+        <v>0.3082308559055596</v>
       </c>
     </row>
     <row r="17">
@@ -3226,19 +3226,19 @@
         <v>112884</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>100802</v>
+        <v>100304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>123677</v>
+        <v>123667</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7383425305153735</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6593198640676051</v>
+        <v>0.6560607099958021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8089367485312665</v>
+        <v>0.8088734641586262</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>119</v>
@@ -3247,19 +3247,19 @@
         <v>130107</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>117337</v>
+        <v>117365</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>141296</v>
+        <v>141672</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7487097233463355</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6752263908516737</v>
+        <v>0.6753875198500824</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8130976467928567</v>
+        <v>0.8152595557904686</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -3268,19 +3268,19 @@
         <v>242991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>225863</v>
+        <v>225975</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>259172</v>
+        <v>258476</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7438575638127949</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6914246801915575</v>
+        <v>0.6917691440944402</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7933931801614513</v>
+        <v>0.7912612424224779</v>
       </c>
     </row>
     <row r="18">
@@ -3372,19 +3372,19 @@
         <v>331451</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>300897</v>
+        <v>300573</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>367323</v>
+        <v>364272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2341275001163483</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2125445471512885</v>
+        <v>0.2123155007848798</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2594660172766163</v>
+        <v>0.2573109262362364</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>198</v>
@@ -3393,19 +3393,19 @@
         <v>215828</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189898</v>
+        <v>189309</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243746</v>
+        <v>246770</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2281772746960676</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.200763814709158</v>
+        <v>0.2001410953621193</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2576924989807757</v>
+        <v>0.2608902432957688</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>516</v>
@@ -3414,19 +3414,19 @@
         <v>547279</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>505204</v>
+        <v>503884</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>593225</v>
+        <v>592051</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2317442569223014</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2139274417809307</v>
+        <v>0.2133683933722913</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2511997227915221</v>
+        <v>0.2507025203519887</v>
       </c>
     </row>
     <row r="20">
@@ -3443,19 +3443,19 @@
         <v>1084237</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1048365</v>
+        <v>1051416</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1114791</v>
+        <v>1115115</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7658724998836517</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7405339827233837</v>
+        <v>0.7426890737637634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7874554528487114</v>
+        <v>0.7876844992151201</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>675</v>
@@ -3464,19 +3464,19 @@
         <v>730050</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>702132</v>
+        <v>699108</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>755980</v>
+        <v>756569</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7718227253039325</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7423075010192244</v>
+        <v>0.7391097567042312</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7992361852908421</v>
+        <v>0.7998589046378808</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1686</v>
@@ -3485,19 +3485,19 @@
         <v>1814287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1768341</v>
+        <v>1769515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1856362</v>
+        <v>1857682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7682557430776986</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7488002772084777</v>
+        <v>0.7492974796480113</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7860725582190691</v>
+        <v>0.7866316066277087</v>
       </c>
     </row>
     <row r="21">
@@ -3830,19 +3830,19 @@
         <v>46911</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34645</v>
+        <v>34999</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61659</v>
+        <v>60694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1705976065639798</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1259902626006204</v>
+        <v>0.1272767124629158</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2242286951949149</v>
+        <v>0.2207210366765379</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -3851,19 +3851,19 @@
         <v>45934</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34625</v>
+        <v>34201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59776</v>
+        <v>58380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2166279756499054</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1632916547815094</v>
+        <v>0.1612951101898968</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2819100166099958</v>
+        <v>0.2753254022042689</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>84</v>
@@ -3872,19 +3872,19 @@
         <v>92845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>76416</v>
+        <v>76915</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>114928</v>
+        <v>111848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1906384463508173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1569045881988925</v>
+        <v>0.1579284535165638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2359815697708421</v>
+        <v>0.2296572057279086</v>
       </c>
     </row>
     <row r="5">
@@ -3901,19 +3901,19 @@
         <v>228070</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>213322</v>
+        <v>214287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>240336</v>
+        <v>239982</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8294023934360202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7757713048050853</v>
+        <v>0.7792789633234621</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8740097373993798</v>
+        <v>0.8727232875370842</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>164</v>
@@ -3922,19 +3922,19 @@
         <v>166107</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>152265</v>
+        <v>153661</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>177416</v>
+        <v>177840</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7833720243500946</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7180899833900042</v>
+        <v>0.7246745977957308</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8367083452184901</v>
+        <v>0.8387048898101027</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -3943,19 +3943,19 @@
         <v>394177</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>372094</v>
+        <v>375174</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>410606</v>
+        <v>410107</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8093615536491827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7640184302291579</v>
+        <v>0.7703427942720914</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8430954118011075</v>
+        <v>0.8420715464834362</v>
       </c>
     </row>
     <row r="6">
@@ -4047,19 +4047,19 @@
         <v>30236</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20528</v>
+        <v>20587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42160</v>
+        <v>41547</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1247802121264315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08471506269063393</v>
+        <v>0.08495895602826287</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1739885604405723</v>
+        <v>0.1714580605528326</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -4068,19 +4068,19 @@
         <v>29394</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>20168</v>
+        <v>19579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40158</v>
+        <v>40711</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1561591240155384</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1071410876176892</v>
+        <v>0.1040154560326345</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2133408366939796</v>
+        <v>0.2162783923094551</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -4089,19 +4089,19 @@
         <v>59631</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>44678</v>
+        <v>45527</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>75399</v>
+        <v>75849</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1384989519185466</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.103770808046039</v>
+        <v>0.1057422820008717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1751226184086545</v>
+        <v>0.176167371752263</v>
       </c>
     </row>
     <row r="8">
@@ -4118,19 +4118,19 @@
         <v>212078</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>200154</v>
+        <v>200767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>221786</v>
+        <v>221727</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8752197878735685</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8260114395594277</v>
+        <v>0.8285419394471674</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.915284937309366</v>
+        <v>0.915041043971737</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>153</v>
@@ -4139,19 +4139,19 @@
         <v>158840</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>148076</v>
+        <v>147523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168066</v>
+        <v>168655</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8438408759844616</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7866591633060204</v>
+        <v>0.7837216076905448</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8928589123823109</v>
+        <v>0.8959845439673655</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>347</v>
@@ -4160,19 +4160,19 @@
         <v>370918</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>355150</v>
+        <v>354700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>385871</v>
+        <v>385022</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8615010480814534</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8248773815913454</v>
+        <v>0.8238326282477371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8962291919539609</v>
+        <v>0.8942577179991282</v>
       </c>
     </row>
     <row r="9">
@@ -4264,19 +4264,19 @@
         <v>65956</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>53233</v>
+        <v>52953</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79559</v>
+        <v>79168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3085930295692238</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2490647334387137</v>
+        <v>0.2477537058230552</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3722376892371458</v>
+        <v>0.3704065055355161</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -4285,19 +4285,19 @@
         <v>9569</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4729</v>
+        <v>4563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16763</v>
+        <v>17092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1469462931053139</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0726296596897678</v>
+        <v>0.07007981792977243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2574269950753259</v>
+        <v>0.2624733276211913</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -4306,19 +4306,19 @@
         <v>75525</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59856</v>
+        <v>59873</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90456</v>
+        <v>92998</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2708447785727847</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2146546996320999</v>
+        <v>0.2147133961221636</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3243878341453507</v>
+        <v>0.3335065744404913</v>
       </c>
     </row>
     <row r="11">
@@ -4335,19 +4335,19 @@
         <v>147776</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>134173</v>
+        <v>134564</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160499</v>
+        <v>160779</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6914069704307761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6277623107628543</v>
+        <v>0.629593494464484</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7509352665612863</v>
+        <v>0.7522462941769448</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -4356,19 +4356,19 @@
         <v>55549</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>48355</v>
+        <v>48026</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>60389</v>
+        <v>60555</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8530537068946861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7425730049246744</v>
+        <v>0.737526672378809</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9273703403102322</v>
+        <v>0.9299201820702275</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>195</v>
@@ -4377,19 +4377,19 @@
         <v>203325</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>188394</v>
+        <v>185852</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>218994</v>
+        <v>218977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7291552214272153</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6756121658546491</v>
+        <v>0.6664934255595087</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7853453003679</v>
+        <v>0.7852866038778363</v>
       </c>
     </row>
     <row r="12">
@@ -4481,19 +4481,19 @@
         <v>136869</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>117470</v>
+        <v>118869</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157218</v>
+        <v>157861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2843744383968466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2440694367215446</v>
+        <v>0.2469753471565699</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.326654201081683</v>
+        <v>0.3279889691391422</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>80</v>
@@ -4502,19 +4502,19 @@
         <v>84077</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>69169</v>
+        <v>68148</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101020</v>
+        <v>101531</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2310457586378457</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1900803821966114</v>
+        <v>0.1872720550321434</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2776055967896751</v>
+        <v>0.2790113350017502</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>208</v>
@@ -4523,19 +4523,19 @@
         <v>220946</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196708</v>
+        <v>194719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>247344</v>
+        <v>245588</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2614139526806614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2327371817365026</v>
+        <v>0.2303836126154106</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2926475023671852</v>
+        <v>0.2905695506331794</v>
       </c>
     </row>
     <row r="14">
@@ -4552,19 +4552,19 @@
         <v>344430</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>324081</v>
+        <v>323438</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363829</v>
+        <v>362430</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7156255616031534</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.673345798918317</v>
+        <v>0.6720110308608579</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7559305632784554</v>
+        <v>0.7530246528434301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -4573,19 +4573,19 @@
         <v>279819</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262876</v>
+        <v>262365</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>294727</v>
+        <v>295748</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7689542413621543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7223944032103247</v>
+        <v>0.7209886649982499</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8099196178033884</v>
+        <v>0.8127279449678565</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>608</v>
@@ -4594,19 +4594,19 @@
         <v>624249</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>597851</v>
+        <v>599607</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>648487</v>
+        <v>650476</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7385860473193386</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7073524976328148</v>
+        <v>0.7094304493668209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.767262818263498</v>
+        <v>0.7696163873845897</v>
       </c>
     </row>
     <row r="15">
@@ -4698,19 +4698,19 @@
         <v>68149</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55300</v>
+        <v>54877</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82502</v>
+        <v>81673</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.354897118380638</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2879854740523574</v>
+        <v>0.2857810306508293</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4296400356784231</v>
+        <v>0.4253245685326345</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -4719,19 +4719,19 @@
         <v>47324</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35483</v>
+        <v>36269</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59407</v>
+        <v>59750</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2406838024545757</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1804646721464077</v>
+        <v>0.1844587368979608</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.302140433011534</v>
+        <v>0.3038819088763677</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>109</v>
@@ -4740,19 +4740,19 @@
         <v>115473</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98850</v>
+        <v>97389</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134488</v>
+        <v>133313</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2971150516528296</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2543434966336918</v>
+        <v>0.2505851925397476</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3460407457834848</v>
+        <v>0.3430187431267501</v>
       </c>
     </row>
     <row r="17">
@@ -4769,19 +4769,19 @@
         <v>123876</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109523</v>
+        <v>110352</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136725</v>
+        <v>137148</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.645102881619362</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5703599643215769</v>
+        <v>0.5746754314673655</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7120145259476426</v>
+        <v>0.7142189693491707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -4790,19 +4790,19 @@
         <v>149298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137215</v>
+        <v>136872</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>161139</v>
+        <v>160353</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7593161975454243</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6978595669884661</v>
+        <v>0.6961180911236322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8195353278535923</v>
+        <v>0.8155412631020388</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>257</v>
@@ -4811,19 +4811,19 @@
         <v>273174</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>254159</v>
+        <v>255334</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>289797</v>
+        <v>291258</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7028849483471704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6539592542165156</v>
+        <v>0.6569812568732499</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7456565033663085</v>
+        <v>0.7494148074602524</v>
       </c>
     </row>
     <row r="18">
@@ -4915,19 +4915,19 @@
         <v>348122</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>315609</v>
+        <v>316875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>380673</v>
+        <v>381860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2478878577598876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2247366512940046</v>
+        <v>0.2256379653639032</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2710664871548627</v>
+        <v>0.2719117447321361</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>207</v>
@@ -4936,19 +4936,19 @@
         <v>216298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>189763</v>
+        <v>190064</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243770</v>
+        <v>245757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2108347293379821</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1849704999196363</v>
+        <v>0.1852637635286398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2376129450512442</v>
+        <v>0.2395502644103127</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>527</v>
@@ -4957,19 +4957,19 @@
         <v>564419</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>522144</v>
+        <v>523455</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>605109</v>
+        <v>611738</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2322462516201126</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2148508409088964</v>
+        <v>0.2153902718036591</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2489891147948954</v>
+        <v>0.2517166921733147</v>
       </c>
     </row>
     <row r="20">
@@ -4986,19 +4986,19 @@
         <v>1056230</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1023679</v>
+        <v>1022492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1088743</v>
+        <v>1087477</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7521121422401124</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7289335128451373</v>
+        <v>0.7280882552678638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7752633487059954</v>
+        <v>0.7743620346360968</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>795</v>
@@ -5007,19 +5007,19 @@
         <v>809613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>782141</v>
+        <v>780154</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>836148</v>
+        <v>835847</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7891652706620179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7623870549487557</v>
+        <v>0.7604497355896872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8150295000803637</v>
+        <v>0.8147362364713602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1781</v>
@@ -5028,19 +5028,19 @@
         <v>1865844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1825154</v>
+        <v>1818525</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1908119</v>
+        <v>1906808</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7677537483798874</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7510108852051043</v>
+        <v>0.7482833078266853</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7851491590911033</v>
+        <v>0.7846097281963409</v>
       </c>
     </row>
     <row r="21">
@@ -5373,19 +5373,19 @@
         <v>51164</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>38333</v>
+        <v>38046</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67124</v>
+        <v>64997</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.1399737818405689</v>
+        <v>0.1399737818405688</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1048707825617329</v>
+        <v>0.104085405843241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1836365840755543</v>
+        <v>0.1778173752745833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>84</v>
@@ -5394,19 +5394,19 @@
         <v>61142</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49752</v>
+        <v>49637</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73665</v>
+        <v>75182</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1847409741169415</v>
+        <v>0.1847409741169414</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.150324383275629</v>
+        <v>0.1499787496450931</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2225795492181773</v>
+        <v>0.2271606072282126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>130</v>
@@ -5415,19 +5415,19 @@
         <v>112306</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>93166</v>
+        <v>95377</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>131622</v>
+        <v>130702</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1612465846963998</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1337653574614281</v>
+        <v>0.1369402956059031</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1889803974866808</v>
+        <v>0.1876595475793082</v>
       </c>
     </row>
     <row r="5">
@@ -5444,19 +5444,19 @@
         <v>314361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298401</v>
+        <v>300528</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>327192</v>
+        <v>327479</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8600262181594313</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8163634159244458</v>
+        <v>0.8221826247254168</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.895129217438267</v>
+        <v>0.8959145941567591</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>357</v>
@@ -5465,19 +5465,19 @@
         <v>269820</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>257297</v>
+        <v>255780</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281210</v>
+        <v>281325</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8152590258830585</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7774204507818228</v>
+        <v>0.7728393927717876</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8496756167243712</v>
+        <v>0.8500212503549069</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>633</v>
@@ -5486,19 +5486,19 @@
         <v>584181</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>564865</v>
+        <v>565785</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>603321</v>
+        <v>601110</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8387534153036</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8110196025133191</v>
+        <v>0.8123404524206917</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8662346425385719</v>
+        <v>0.8630597043940971</v>
       </c>
     </row>
     <row r="6">
@@ -5590,19 +5590,19 @@
         <v>52059</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39012</v>
+        <v>39283</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67273</v>
+        <v>69357</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1655792251222115</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1240823104074313</v>
+        <v>0.1249439659989215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2139686476598678</v>
+        <v>0.2205991729207086</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -5611,19 +5611,19 @@
         <v>45454</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36382</v>
+        <v>35128</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>58453</v>
+        <v>56861</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1697872048260159</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1359020489701915</v>
+        <v>0.1312164650556589</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2183452576612383</v>
+        <v>0.2123960696190594</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -5632,19 +5632,19 @@
         <v>97513</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>81765</v>
+        <v>80545</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>118309</v>
+        <v>118896</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1675144464834421</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1404625018950346</v>
+        <v>0.1383653931413278</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2032406256950232</v>
+        <v>0.2042479157138803</v>
       </c>
     </row>
     <row r="8">
@@ -5661,19 +5661,19 @@
         <v>262345</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>247131</v>
+        <v>245047</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>275392</v>
+        <v>275121</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8344207748777884</v>
+        <v>0.8344207748777885</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.786031352340132</v>
+        <v>0.7794008270792913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8759176895925684</v>
+        <v>0.8750560340010786</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>295</v>
@@ -5682,19 +5682,19 @@
         <v>222257</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209258</v>
+        <v>210850</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>231329</v>
+        <v>232583</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8302127951739842</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7816547423387618</v>
+        <v>0.7876039303809405</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8640979510298085</v>
+        <v>0.8687835349443409</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>520</v>
@@ -5703,19 +5703,19 @@
         <v>484602</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>463806</v>
+        <v>463219</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>500350</v>
+        <v>501570</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8324855535165578</v>
+        <v>0.832485553516558</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7967593743049766</v>
+        <v>0.7957520842861194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8595374981049653</v>
+        <v>0.8616346068586721</v>
       </c>
     </row>
     <row r="9">
@@ -5807,19 +5807,19 @@
         <v>61485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48465</v>
+        <v>47670</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77474</v>
+        <v>79389</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2310350672179781</v>
+        <v>0.231035067217978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1821122335343292</v>
+        <v>0.17912361731644</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2911145699534661</v>
+        <v>0.2983091019525628</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -5828,19 +5828,19 @@
         <v>20457</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14261</v>
+        <v>14359</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27800</v>
+        <v>27250</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2571591590046222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1792651040629716</v>
+        <v>0.1804957619483729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.349456042234237</v>
+        <v>0.3425416432745121</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>86</v>
@@ -5849,19 +5849,19 @@
         <v>81942</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>65363</v>
+        <v>66466</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98527</v>
+        <v>102139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2370469822395691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1890867241360488</v>
+        <v>0.1922772866072298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2850248001850118</v>
+        <v>0.2954744256137859</v>
       </c>
     </row>
     <row r="11">
@@ -5878,19 +5878,19 @@
         <v>204644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>188655</v>
+        <v>186740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>217664</v>
+        <v>218459</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.768964932782022</v>
+        <v>0.7689649327820219</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7088854300465339</v>
+        <v>0.7016908980474372</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8178877664656707</v>
+        <v>0.8208763826835601</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>81</v>
@@ -5899,19 +5899,19 @@
         <v>59094</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>51751</v>
+        <v>52301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>65290</v>
+        <v>65192</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7428408409953778</v>
+        <v>0.7428408409953777</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6505439577657626</v>
+        <v>0.6574583567254877</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8207348959370283</v>
+        <v>0.819504238051627</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>260</v>
@@ -5920,19 +5920,19 @@
         <v>263737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247152</v>
+        <v>243540</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>280316</v>
+        <v>279213</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7629530177604309</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7149751998149881</v>
+        <v>0.7045255743862139</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8109132758639511</v>
+        <v>0.80772271339277</v>
       </c>
     </row>
     <row r="12">
@@ -6024,19 +6024,19 @@
         <v>151686</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>128416</v>
+        <v>129874</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177014</v>
+        <v>178485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2494873720836246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2112135471801209</v>
+        <v>0.2136110640204767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2911455067367181</v>
+        <v>0.293565160884499</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>153</v>
@@ -6045,19 +6045,19 @@
         <v>113196</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97556</v>
+        <v>98892</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>129373</v>
+        <v>129444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2420013654323108</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2085645181935456</v>
+        <v>0.2114206596137493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2765845747581759</v>
+        <v>0.2767371063960006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>281</v>
@@ -6066,19 +6066,19 @@
         <v>264883</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>236096</v>
+        <v>235943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>296356</v>
+        <v>295017</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2462323272011639</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2194724483812156</v>
+        <v>0.2193306383497347</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2754894391375892</v>
+        <v>0.2742445299111431</v>
       </c>
     </row>
     <row r="14">
@@ -6095,19 +6095,19 @@
         <v>456305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>430977</v>
+        <v>429506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>479575</v>
+        <v>478117</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7505126279163754</v>
+        <v>0.7505126279163753</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7088544932632823</v>
+        <v>0.7064348391155011</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7887864528198792</v>
+        <v>0.7863889359795234</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>464</v>
@@ -6116,19 +6116,19 @@
         <v>354555</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>338378</v>
+        <v>338307</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>370195</v>
+        <v>368859</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7579986345676891</v>
+        <v>0.7579986345676892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7234154252418241</v>
+        <v>0.7232628936039994</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7914354818064544</v>
+        <v>0.7885793403862508</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>860</v>
@@ -6137,19 +6137,19 @@
         <v>810860</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>779387</v>
+        <v>780726</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>839647</v>
+        <v>839800</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7537676727988361</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7245105608624108</v>
+        <v>0.7257554700888568</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7805275516187845</v>
+        <v>0.7806693616502653</v>
       </c>
     </row>
     <row r="15">
@@ -6241,19 +6241,19 @@
         <v>64948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50840</v>
+        <v>48828</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82560</v>
+        <v>80744</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.214946673751625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1682556703842972</v>
+        <v>0.16159729903209</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2732369150734679</v>
+        <v>0.2672258970961973</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>139</v>
@@ -6262,19 +6262,19 @@
         <v>100113</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>86476</v>
+        <v>85135</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>114453</v>
+        <v>114507</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3322735833839459</v>
+        <v>0.3322735833839458</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2870125083508879</v>
+        <v>0.282562767924755</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3798696205106509</v>
+        <v>0.3800467780392698</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>196</v>
@@ -6283,19 +6283,19 @@
         <v>165060</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>142273</v>
+        <v>144578</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>185610</v>
+        <v>190361</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.273526458111203</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2357656256152932</v>
+        <v>0.2395837585360411</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3075802001676962</v>
+        <v>0.3154535634259192</v>
       </c>
     </row>
     <row r="17">
@@ -6312,19 +6312,19 @@
         <v>237209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>219597</v>
+        <v>221413</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>251317</v>
+        <v>253329</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7850533262483751</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7267630849265321</v>
+        <v>0.7327741029038025</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8317443296157027</v>
+        <v>0.8384027009679098</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>276</v>
@@ -6333,19 +6333,19 @@
         <v>201183</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>186843</v>
+        <v>186789</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>214820</v>
+        <v>216161</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6677264166160543</v>
+        <v>0.667726416616054</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6201303794893489</v>
+        <v>0.6199532219607302</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7129874916491121</v>
+        <v>0.7174372320752451</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>468</v>
@@ -6354,19 +6354,19 @@
         <v>438393</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>417843</v>
+        <v>413092</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>461180</v>
+        <v>458875</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7264735418887971</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6924197998323038</v>
+        <v>0.6845464365740804</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7642343743847068</v>
+        <v>0.7604162414639587</v>
       </c>
     </row>
     <row r="18">
@@ -6458,19 +6458,19 @@
         <v>381341</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>346646</v>
+        <v>344543</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>426684</v>
+        <v>419056</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2054413639787691</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1867499688659401</v>
+        <v>0.1856170521240713</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2298689128701989</v>
+        <v>0.2257594934279232</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>465</v>
@@ -6479,19 +6479,19 @@
         <v>340363</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>311988</v>
+        <v>309287</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>369173</v>
+        <v>368893</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2351753946542943</v>
+        <v>0.2351753946542942</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2155695479819492</v>
+        <v>0.213703470586668</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2550824126808386</v>
+        <v>0.2548888279081022</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>798</v>
@@ -6500,19 +6500,19 @@
         <v>721704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>676879</v>
+        <v>677882</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>776549</v>
+        <v>770573</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2184680030595351</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2048988892768425</v>
+        <v>0.2052025184695142</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.23507002510862</v>
+        <v>0.2332610642770989</v>
       </c>
     </row>
     <row r="20">
@@ -6529,19 +6529,19 @@
         <v>1474865</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1429522</v>
+        <v>1437150</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1509560</v>
+        <v>1511663</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.794558636021231</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7701310871298012</v>
+        <v>0.7742405065720769</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8132500311340602</v>
+        <v>0.8143829478759287</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1473</v>
@@ -6550,19 +6550,19 @@
         <v>1106908</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1078098</v>
+        <v>1078378</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1135283</v>
+        <v>1137984</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7648246053457057</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7449175873191616</v>
+        <v>0.7451111720918985</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7844304520180507</v>
+        <v>0.7862965294133321</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2741</v>
@@ -6571,19 +6571,19 @@
         <v>2581774</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2526929</v>
+        <v>2532905</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2626599</v>
+        <v>2625596</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7815319969404649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7649299748913799</v>
+        <v>0.766738935722901</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7951011107231576</v>
+        <v>0.7947974815304858</v>
       </c>
     </row>
     <row r="21">
